--- a/GII/test.xlsx
+++ b/GII/test.xlsx
@@ -428,16 +428,16 @@
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Global Structural Adhesive Market size was valued at USD 12.9 Billion in 2022 and is expected to grow from USD 13.6 Billion in 2023 to reach USD 21.1 Billion by 2031, at a CAGR of 5.6% during the forecast period (2024-2031).
-The rising demand for structural adhesives is primarily due to increased activity in the construction industry, driven by global modernization and expansion in developing nations like China and India. In the upcoming years, this surge in construction is expected to boost the need for structural adhesives. Growth in research and development initiatives focused on novel solutions that offer high bond strength, shorter curing times, and reduced hazardous emissions will further enhance the global market for water-based adhesives. Additionally, the automotive sector's shift towards low-carbon emitting and lightweight vehicles is anticipated to contribute to higher adhesive demands in transportation. Manufacturers currently offer over 250,000 unique adhesive products, reflecting the varied applications across industries. Structural adhesives play a vital role in decreasing vehicle weight, improving fuel efficiency and thereby lowering carbon emissions. Their strength and compatibility with multiple substrates like metal, wood, and polymers make them preferable over traditional fasteners and welds, particularly in the aerospace and automotive sectors, where cost-efficiency and manufacturing speed are crucial. The anticipated growth in light commercial vehicles, innovative passenger vehicles, and advanced aircraft with high composite material usage will likely intensify demand for structural adhesives. However, the COVID-19 pandemic negatively impacted the global structural adhesives market in the short term, particularly affecting the automotive and construction sectors, with the National Centre of Information reporting a manufacturing decline of approximately 30% in March 2020 compared to the previous year due to factory shutdowns.
+The rising demand for structural adhesives in the construction and automobile sectors, particularly in rapidly developing countries like China and India, is driving significant growth in this market. The global construction industry's expansion is a principal factor behind this surge, as is the increasing emphasis on research and development initiatives aimed at creating innovative adhesive solutions characterized by high bond strength, shorter curing times, and reduced hazardous emissions. Additionally, the shift towards low-carbon, lightweight vehicles is expected to further escalate demand for various adhesive applications within transportation. The global market for environmentally friendly materials is witnessing a rise due to heightened focus on energy conservation, water retention, and sustainable construction practices. Structural adhesives play a vital role in reducing vehicle weight during manufacture, enhancing fuel efficiency and lowering carbon emissions. They are becoming preferred alternatives to mechanical fasteners and welds, especially in the automotive and aerospace industries, where material selection is heavily influenced by cost and manufacturing efficiency. Furthermore, the emergence of light commercial vehicles, innovative passenger cars, and advanced aircraft utilizing composite materials is poised to bolster the structural adhesives sector. Despite the ongoing competitive pressure from alternative materials, structural adhesives continue to gain traction, particularly in applications prioritizing weight reduction and performance. The COVID-19 pandemic's impact temporarily hindered growth, with a reported 30% production decline in the manufacturing sector due to factory closures in March 2020; however, the long-term outlook remains positive as industries rebound.
 Top-down and bottom-up approaches were used to estimate and validate the size of the Global Structural Adhesive market and to estimate the size of various other dependent submarkets. The research methodology used to estimate the market size includes the following details: The key players in the market were identified through secondary research, and their market shares in the respective regions were determined through primary and secondary research. This entire procedure includes the study of the annual and financial reports of the top market players and extensive interviews for key insights from industry leaders such as CEOs, VPs, directors, and marketing executives. All percentage shares split, and breakdowns were determined using secondary sources and verified through Primary sources. All possible parameters that affect the markets covered in this research study have been accounted for, viewed in extensive detail, verified through primary research, and analyzed to get the final quantitative and qualitative data.
 Global Structural Adhesive Market Segmental Analysis
 The global structural adhesive market is segmented by Resin, Technology, Substrate, Application, and region. Based on Resin, the market is segmented into Epoxy, Polyurethane, Acrylic, Methyl Methacrylate, Cyanoacrylate, and Other Resins. Based on Technology, the market is segmented into Water-based, Solvent-based, and Others. Based on Substrate, the market is segmented into Plastic, Metal, Wood, Composites, Other Substrate. Based on Application, the market is segmented into Building &amp; Construction, Bus &amp; Truck, Automotive, Aerospace, Wind Energy, Marine, Rail and Other Applications. Based on Region, the global Structural Adhesive Market is segmented into North America, Europe, Asia-Pacific, Latin America, and Middle East &amp; Africa.
 Driver of the Global Structural Adhesive Market
-The global rise in demand for smartphones and wearables featuring flexible displays is significantly contributing to the expansion of the structural adhesive market. This surge is driven by consumers seeking enhanced user experiences paired with sleek, stylish designs and superior durability. As individuals increasingly prioritize devices that combine flexibility, portability, and attractive aesthetics, manufacturers are compelled to innovate and utilize advanced structural adhesives that meet these evolving needs. Consequently, the market is witnessing a transformation, with structural adhesives playing a crucial role in enabling the production of these high-demand, attractive, and functional electronic devices, thereby boosting overall market growth and sustainability.
+The global structural adhesive market is experiencing significant growth, driven by the rising demand for smartphones and wearable technology featuring flexible displays. This trend is largely attributed to the enhanced user experience, stylish designs, and superior durability that these devices offer. As consumers increasingly seek products that provide flexibility, portability, and an appealing visual appearance, manufacturers are compelled to innovate and integrate advanced materials, including structural adhesives, to meet these expectations. This shift in consumer preferences is propelling the market forward, as companies prioritize the development of cutting-edge solutions to create more versatile and aesthetically pleasing electronic devices.
 Restraints in the Global Structural Adhesive Market
-The production of flexible displays entails intricate technologies and the use of specialized materials, leading to elevated manufacturing costs in comparison to conventional displays. This financial barrier presents a significant challenge for widespread acceptance and integration into the market. As a result, the higher expenses associated with flexible display production may hinder their potential for mass adoption, limiting their reach and market penetration. To overcome this restraint, manufacturers must explore innovative solutions to streamline production processes and reduce costs, thereby facilitating broader acceptance and increasing the competitive presence of flexible displays in the global marketplace.
+The production of flexible displays entails intricate technologies and the use of specialized materials, which contribute to significantly higher manufacturing costs relative to conventional display types. This elevated expenditure creates a barrier to widespread adoption and hinders market entry, making it difficult for these innovative displays to gain traction in the competitive landscape. As a result, the financial implications associated with producing flexible displays limit their accessibility and appeal to a broader audience, potentially stalling the growth of the market and restricting the potential customer base that could benefit from these advanced display solutions.
 Market Trends of the Global Structural Adhesive Market
-The global structural adhesive market is witnessing a notable trend towards the increasing adoption of foldable smartphones. This surge is largely attributed to the popularity of devices featuring flexible displays, which provide users with both a larger screen area when opened and improved portability when closed. As a result, leading smartphone manufacturers are actively introducing foldable models into their product lines, significantly contributing to the expansion of the flexible display market. This innovative approach not only enhances user experience but also indicates a shift in consumer preferences towards more versatile and advanced technologies, further propelling the growth of structural adhesives in this dynamic sector.</t>
+The Global Structural Adhesive market is experiencing notable trends, particularly with the rising popularity of foldable smartphones. These innovative devices, featuring flexible displays, have captured considerable market interest due to their ability to provide an expansive viewing area when unfolded while maintaining high portability when folded. As numerous leading smartphone manufacturers introduce their own foldable models, this trend is catalyzing the demand for flexible display technology, subsequently fueling growth within the structural adhesive market. The unique design and functionality of foldable smartphones not only enhance user experience but also stimulate advancements in adhesive solutions that support such cutting-edge applications.</t>
         </is>
       </c>
     </row>
